--- a/data/2019PredsC.xlsx
+++ b/data/2019PredsC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tang-\Documents\Python\skynet2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E6FE8D1B-49F2-4232-9A1F-3F06D8C5BDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3D7E0A7C-9662-4283-A143-E2C220175AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="585">
   <si>
     <t>divsRank</t>
   </si>
@@ -17488,7 +17488,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A8:C40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+  <location ref="A8:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -18050,7 +18050,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="30">
     <i>
       <x v="28"/>
     </i>
@@ -18061,70 +18061,70 @@
       <x v="11"/>
     </i>
     <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="12"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="27"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="21"/>
     </i>
     <i>
       <x v="6"/>
@@ -18133,13 +18133,7 @@
       <x v="26"/>
     </i>
     <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="21"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="10"/>
@@ -18161,7 +18155,7 @@
   </colItems>
   <pageFields count="6">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="9" hier="-1"/>
+    <pageField fld="9" item="1" hier="-1"/>
     <pageField fld="8" hier="-1"/>
     <pageField fld="10" hier="-1"/>
     <pageField fld="11" hier="-1"/>
@@ -18480,10 +18474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18506,7 +18500,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -18557,10 +18551,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="4">
-        <v>1765</v>
+        <v>739</v>
       </c>
       <c r="C9" s="4">
-        <v>1694.4673505338005</v>
+        <v>709.6886163910109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -18568,10 +18562,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="4">
-        <v>802</v>
+        <v>435</v>
       </c>
       <c r="C10" s="4">
-        <v>774.95966069262454</v>
+        <v>423.72221623381228</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -18579,54 +18573,54 @@
         <v>29</v>
       </c>
       <c r="B11" s="4">
-        <v>649</v>
+        <v>350</v>
       </c>
       <c r="C11" s="4">
-        <v>629.74762418461944</v>
+        <v>337.4321621580209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4">
-        <v>538</v>
+        <v>258</v>
       </c>
       <c r="C12" s="4">
-        <v>521.97448480371372</v>
+        <v>250.69333358329868</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4">
-        <v>517</v>
+        <v>214</v>
       </c>
       <c r="C13" s="4">
-        <v>502.79065842909631</v>
+        <v>209.63660240553449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4">
-        <v>467</v>
+        <v>213</v>
       </c>
       <c r="C14" s="4">
-        <v>455.10481792180775</v>
+        <v>207.81988332395571</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>452</v>
+        <v>194</v>
       </c>
       <c r="C15" s="4">
-        <v>432.84378433087164</v>
+        <v>185.03351847487943</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -18634,54 +18628,54 @@
         <v>118</v>
       </c>
       <c r="B16" s="4">
-        <v>417</v>
+        <v>174</v>
       </c>
       <c r="C16" s="4">
-        <v>402.69908977048806</v>
+        <v>164.11154574360162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4">
-        <v>384</v>
+        <v>171</v>
       </c>
       <c r="C17" s="4">
-        <v>378.31677378107588</v>
+        <v>157.78250552631624</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4">
-        <v>300.78300187066714</v>
+        <v>165.03033987004741</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4">
-        <v>292.61639239176293</v>
+        <v>150.02126962829803</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4">
-        <v>289.14168483775074</v>
+        <v>140.72777744318716</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -18689,21 +18683,21 @@
         <v>69</v>
       </c>
       <c r="B21" s="4">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4">
-        <v>287.96570533874893</v>
+        <v>141.75884309800531</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="C22" s="4">
-        <v>198.21095636406955</v>
+        <v>134.36078137589587</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -18711,120 +18705,120 @@
         <v>25</v>
       </c>
       <c r="B23" s="4">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4">
-        <v>158.2520244715007</v>
+        <v>126.8835293803308</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4">
-        <v>128.21697882199024</v>
+        <v>93.60437413863994</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B25" s="4">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4">
-        <v>124.73931944140523</v>
+        <v>64.228524839717267</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4">
-        <v>100.22788132264081</v>
+        <v>60.060468142489547</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B27" s="4">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4">
-        <v>88.115812427088485</v>
+        <v>59.366203352222691</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="B28" s="4">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4">
-        <v>72.373865557874197</v>
+        <v>53.804210294790266</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="B29" s="4">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4">
-        <v>60.060468142489547</v>
+        <v>37.812442738664203</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4">
-        <v>63.747022278022392</v>
+        <v>36.843960292631195</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>424</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
-        <v>37.812442738664203</v>
+        <v>25.883091280462402</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B32" s="4">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4">
-        <v>33.384549354034775</v>
+        <v>16.48202244333033</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>499</v>
       </c>
       <c r="B33" s="4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4">
-        <v>25.883091280462402</v>
+        <v>9.4574669298395904</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -18832,10 +18826,10 @@
         <v>65</v>
       </c>
       <c r="B34" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C34" s="4">
-        <v>15.474504238583609</v>
+        <v>6.2211421936908096</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -18843,65 +18837,43 @@
         <v>374</v>
       </c>
       <c r="B35" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C35" s="4">
-        <v>11.249979682826305</v>
+        <v>-0.46891086187139502</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B36" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4">
-        <v>11.03313150360686</v>
+        <v>0.25693803893368999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="B37" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4">
-        <v>8.1890636216678345</v>
+        <v>0.58402094684819705</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>499</v>
+        <v>581</v>
       </c>
       <c r="B38" s="4">
-        <v>9</v>
+        <v>4108</v>
       </c>
       <c r="C38" s="4">
-        <v>9.4574669298395904</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.58402094684819705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B40" s="4">
-        <v>8383</v>
-      </c>
-      <c r="C40" s="4">
-        <v>8110.4236080106421</v>
+        <v>3968.8388794065831</v>
       </c>
     </row>
   </sheetData>
